--- a/biology/Médecine/Andrea_Bacci/Andrea_Bacci.xlsx
+++ b/biology/Médecine/Andrea_Bacci/Andrea_Bacci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Bacci (né en 1524 à Sant'Elpidio a Mare, dans l'actuelle province de Fermo, dans la région des Marches, alors dans les États pontificaux et mort le 24 octobre 1600 à Rome) est un philosophe, médecin et écrivain italien du XVIe siècle.
 Il se définissait lui-même Andrea Baccius Philosophus, Medicus Elpidianus et Civis Romanus.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Bacci étudie à Matelica, puis à Sienne et enfin à Rome sous la protection d'un concitoyen  Modestino Cassini, archiatre de Pie V, lui aussi natif de Sant'Elpidio.
 Ses études terminées, il exerce l'activité de médecin à Serra San Quirico, pour retourner à Rome en 1552 grâce aux recommandations du cardinal Ascanio Colonna.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a laissé les ouvrages suivants :
 Del Tevere, della natura e bontà dell’acque, e dell’inondazioni, lib. 2, Rome, 1558, in-8° ; le même ouvrage, en 3 livres, Venise, Alde, 1570, in-4° ; Rome, 1599, in-4°.
@@ -589,7 +605,9 @@
           <t>De naturali vinorum historia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Imprimée en 1595, c'est son œuvre la plus importante. Elle est représentée par une collection de sept volumes entièrement consacrée à la connaissance de tous les vins de l'époque.
 Livre I –Vinification et conservation des vins
